--- a/demo/q2_date_availability.xlsx
+++ b/demo/q2_date_availability.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcheam/Desktop/Projects/myProjects/automatic-roster/extras/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewcheam/Desktop/Projects/myProjects/automatic-roster/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8344471-83CE-7A44-A6E3-B68DEE542DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B2FEB5-7A63-B241-B4C0-4C9188E624A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
